--- a/doc-1/Taghvim93.xlsx
+++ b/doc-1/Taghvim93.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="663">
   <si>
     <t>پنجشنبه</t>
   </si>
@@ -2012,6 +2012,9 @@
   </si>
   <si>
     <t>14/11/07</t>
+  </si>
+  <si>
+    <t>14/11/08</t>
   </si>
 </sst>
 </file>
@@ -8999,7 +9002,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9033,7 +9036,9 @@
       <c r="H3" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>662</v>
+      </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
